--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332EAAB-0B5A-4BCB-A7AB-AA664C3337A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359DC03-DAA3-4B77-9A66-C02249D0CDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>テストケースID</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>完了画面のTOPページへ戻るボタンを押下</t>
-  </si>
-  <si>
-    <t>TOPページに遷移</t>
   </si>
   <si>
     <t>TC001</t>
@@ -89,16 +83,6 @@
   </si>
   <si>
     <t>TOPページからアカウント登録画面へ画面遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボタン形式による画面遷移</t>
-    <rPh sb="3" eb="5">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ガメンセンイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -113,19 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面から登録確認画面へ画面遷移</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>トウロクカクニンガメン</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザーがアカウント登録画面にアクセスしている</t>
   </si>
   <si>
@@ -139,22 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力チェック後、ボタン形式による画面遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面にアクセスする
 2.テストデータに記載の各項目入力、選択する
 3.確認するボタンをクリックする</t>
@@ -181,18 +136,186 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>入力チェック後、ボタン形式による画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>登録確認画面へ入力データセット</t>
-    <rPh sb="0" eb="2">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）</t>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーがアカウント登録画面にアクセスしている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）: 田中, 名前（名）: 葉子, カナ（姓）: タナカ, カナ（名）: ヨウコ,
+ メールアドレス: tanaka@example.com, パスワード: Password2, 性別: 女,
+ 郵便番号: 2345678, 住所（都道府県）: 愛知県, 住所（市区町村）: 名古屋市, 住所（番地）: 1-2, アカウント権限: 管理者</t>
+    <rPh sb="7" eb="9">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウコ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>アイチケン</t>
+    </rPh>
+    <rPh sb="142" eb="146">
+      <t>ナゴヤシ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から登録確認画面へ画面遷移
+入力データセット</t>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から登録確認画面へ画面遷移
+入力データセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面からアカウント登録画面へ画面遷移
+表示データセット</t>
+    <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="18" eb="22">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面へ表示データセット</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+アカウント登録画面で入力したテストデータが各項目、正しく表示されている
+（※パスワードのみ●で表示）</t>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
       <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+アカウント登録画面で入力したテストデータが各項目、正しく表示されている
+（※パスワードのみ●で表示）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で正しいデータを入力、確認後
+ユーザーが登録画面へアクセスしている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カクニンゴ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面にアクセスする
+2.前に戻るボタンをクリック</t>
+    <rPh sb="21" eb="22">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタンを押下後、アカウント登録画面へ遷移
+登録確認画面で表示されているテストデータが保持され、アカウント登録画面に表示されている</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -260,12 +383,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,21 +698,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="235.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -630,24 +756,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -667,78 +793,124 @@
     </row>
     <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359DC03-DAA3-4B77-9A66-C02249D0CDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C16F51-8021-473D-A0CB-CC61B2B9D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>テストケースID</t>
   </si>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>アカウント登録画面から登録確認画面へ画面遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力チェック後、ボタン形式による画面遷移</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -254,26 +250,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で正しいデータを入力、確認後
-ユーザーが登録画面へアクセスしている</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カクニンゴ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面にアクセスする
 2.前に戻るボタンをクリック</t>
     <rPh sb="21" eb="22">
@@ -316,6 +292,174 @@
     </rPh>
     <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面から登録完了画面へ画面遷移</t>
+    <rPh sb="8" eb="14">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面から登録完了画面へ画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から登録確認画面へ画面遷移
+入力チェック後、ボタン形式による画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページからアカウント登録画面へ画面遷移
+ボタン形式による画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で正しいデータを入力、確認後
+ユーザーが登録確認画面へアクセスしている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カクニンゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で正しいデータを入力、確認後
+ユーザーが登録確認画面へアクセスしている</t>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面にアクセスする
+2.登録するボタンをクリック</t>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録するボタンを押下後、登録完了画面へ遷移
+「登録完了しました」と正しくテキスト表示がされている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面からTOPページへ画面遷移</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーが登録完了画面にアクセスしている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面からTOPページへ画面遷移
+ボタン形式による画面遷移</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録完了画面にアクセスする
+2.TOPページへ戻るボタンをクリック</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページへ戻るボタンを押下後、TOPページへ画面遷移する</t>
+    <rPh sb="13" eb="16">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -383,15 +527,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,21 +839,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="108.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -756,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -764,10 +905,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -798,8 +942,8 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -829,18 +973,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -849,7 +993,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -867,50 +1011,96 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C16F51-8021-473D-A0CB-CC61B2B9D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76299C2-F650-47C7-8CDF-A75B3F0C04A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>テストケースID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>期待結果</t>
   </si>
   <si>
-    <t>確認者</t>
-  </si>
-  <si>
     <t>確認日付</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>環境</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>TC001</t>
@@ -461,6 +455,42 @@
     <rPh sb="26" eb="28">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード表示が「●」でなく米印での表示になってしまっている</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コメジルシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認者</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -527,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -535,6 +565,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -842,7 +877,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -856,7 +891,9 @@
     <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -882,225 +919,270 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45462</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45462</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45462</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45462</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45462</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45462</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="3">
+        <v>45462</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76299C2-F650-47C7-8CDF-A75B3F0C04A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC939796-4B45-4488-90C8-279E0D56BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>テストケースID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>テストケース名</t>
   </si>
   <si>
-    <t>前提条件</t>
-  </si>
-  <si>
     <t>テストデータ</t>
   </si>
   <si>
@@ -64,10 +61,6 @@
   </si>
   <si>
     <t>TC003</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーがTOPページにアクセスしている</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -91,19 +84,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーがアカウント登録画面にアクセスしている</t>
-  </si>
-  <si>
-    <t>ユーザーがアカウント登録画面にアクセスしている</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面にアクセスする
 2.テストデータに記載の各項目入力、選択する
 3.確認するボタンをクリックする</t>
@@ -142,10 +122,6 @@
     <rPh sb="16" eb="17">
       <t>ベツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーがアカウント登録画面にアクセスしている</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -181,11 +157,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面から登録確認画面へ画面遷移
-入力データセット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TC005</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -318,40 +289,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面で正しいデータを入力、確認後
-ユーザーが登録確認画面へアクセスしている</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カクニンゴ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録画面で正しいデータを入力、確認後
-ユーザーが登録確認画面へアクセスしている</t>
-    <rPh sb="31" eb="33">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面にアクセスする
 2.登録するボタンをクリック</t>
     <rPh sb="21" eb="23">
@@ -397,19 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーが登録完了画面にアクセスしている</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>登録完了画面からTOPページへ画面遷移
 ボタン形式による画面遷移</t>
     <rPh sb="0" eb="6">
@@ -491,6 +415,493 @@
   </si>
   <si>
     <t>確認者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+名前（姓）が正しく表示されている</t>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+名前（名）が正しく表示されている</t>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+カナ（姓）が正しく表示されている</t>
+    <rPh sb="19" eb="20">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+カナ（名）が正しく表示されている</t>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+メールアドレスが正しく表示されている</t>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+パスワードが正しく表示されている</t>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+性別が正しく表示されている</t>
+    <rPh sb="16" eb="18">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+郵便番号が正しく表示されている</t>
+    <rPh sb="16" eb="20">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+住所（都道府県）が正しく表示されている</t>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+ 住所（市区町村）が正しく表示されている</t>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+ 住所（番地）が正しく表示されている</t>
+    <rPh sb="20" eb="22">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット
+ アカウント権限が正しく表示されている</t>
+    <rPh sb="22" eb="24">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+名前（姓）が正しく表示されている</t>
+    <rPh sb="27" eb="28">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+名前（名）が正しく表示されている</t>
+    <rPh sb="27" eb="28">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+カナ（姓）が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+カナ（名）が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+メールアドレスが正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+性別が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+郵便番号が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+パスワードが正しく表示されている（●で表示）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+住所（都道府県）が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+ 住所（市区町村）が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+ 住所（番地）が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下後、登録確認画面へ遷移
+ アカウント権限が正しく表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から登録確認画面へ画面遷移
+入力データセット(別データ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から登録確認画面へ画面遷移
+入力データセット(別データ）</t>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+名前（姓）が正しく表示されている</t>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+名前（名）が正しく表示されている</t>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+カナ（姓）が正しく表示されている</t>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+カナ（名）が正しく表示されている</t>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+メールアドレスが正しく表示されている</t>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+パスワードが正しく表示されている</t>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+性別が正しく表示されている</t>
+    <rPh sb="22" eb="24">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+郵便番号が正しく表示されている</t>
+    <rPh sb="22" eb="26">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+住所（都道府県）が正しく表示されている</t>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+ 住所（市区町村）が正しく表示されている</t>
+    <rPh sb="32" eb="33">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+ 住所（番地）が正しく表示されている</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面へ入力データセット(別データ）
+ アカウント権限が正しく表示されている</t>
+    <rPh sb="28" eb="30">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC013</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC014</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC015</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC016</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC017</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC018</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC019</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC020</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC022</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC023</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC026</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC027</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC028</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC029</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC030</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC031</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -557,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,7 +980,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -874,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -885,18 +1295,17 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -930,259 +1339,763 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45462</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45462</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="4">
+        <v>45462</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45462</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45462</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="3">
         <v>45462</v>
       </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45462</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45462</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45462</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45462</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45462</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K32" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45462</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC939796-4B45-4488-90C8-279E0D56BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437378CD-A6BE-4E03-A286-B32CA894B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
-  <si>
-    <t>テストケースID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="176">
   <si>
     <t>機能</t>
   </si>
@@ -902,6 +910,281 @@
   </si>
   <si>
     <t>TC031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した文字数と表示数があっていない</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストケースID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>family_nameが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>family_name: '山田'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（family_name: '山田'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、family_nameが「山田」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>family_nameがデータベースに「山田」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>last_nameが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>last_name: '太郎'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（last_name: '太郎'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、last_nameが「太郎」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>last_nameがデータベースに「太郎」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>family_name_kanaが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>family_name_kana: 'ヤマダ'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（family_name_kana: 'ヤマダ'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、family_name_kanaが「ヤマダ」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>family_name_kanaがデータベースに「ヤマダ」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>last_name_kanaが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>last_name_kana: 'タロウ'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（last_name_kana: 'タロウ'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、last_name_kanaが「タロウ」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>last_name_kanaがデータベースに「タロウ」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>mailが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>mail: 'yamada@example.com'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（mail: 'yamada@example.com'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、mailが「yamada@example.com」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>mailがデータベースに「yamada@example.com」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>passwordが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>password: 'Password1'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（password: 'Password1'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、passwordが「Password1」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>passwordがデータベースに「Password1」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>genderが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>postal_codeが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>postal_code: 1234567</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（postal_code: 1234567）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、postal_codeが1234567として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>prefectureが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>prefecture: '東京都'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（prefecture: '東京都'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、prefectureが「東京都」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>prefectureがデータベースに「東京都」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>address_1が正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>address_1: '千代田区'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（address_1: '千代田区'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、address_1が「千代田区」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>address_1がデータベースに「千代田区」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>address_2が正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>address_2: '1-1'</t>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（address_2: '1-1'）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、address_2が「1-1」として登録されていることを確認する</t>
+  </si>
+  <si>
+    <t>address_2がデータベースに「1-1」として正しく登録されている</t>
+  </si>
+  <si>
+    <t>authorityが正しく登録されるか確認</t>
+  </si>
+  <si>
+    <t>authorityの部分が数字で表示されてしまっている</t>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authorityがデータベースに一般として正しく登録されている</t>
+    <rPh sb="17" eb="19">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（authority: 一般）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、authorityが一般として登録されていることを確認する</t>
+    <rPh sb="42" eb="44">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authority: 一般</t>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gender: 男</t>
+    <rPh sb="8" eb="9">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーがアカウント登録フォームに全ての必須情報を入力（gender: 男）し、送信ボタンをクリックする
+2. phpMyAdminでデータベースに接続し、genderが男として登録されていることを確認する</t>
+    <rPh sb="39" eb="40">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>genderがデータベースに男として正しく登録されている</t>
+    <rPh sb="14" eb="15">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postal_codeがデータベースに1234567として正しく登録されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC032</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC033</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC034</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC035</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC036</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC037</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC038</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC039</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC040</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC041</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC042</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC043</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XAMPP MySQLでのデータベース登録</t>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -968,7 +1251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -980,6 +1263,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1284,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1581,7 @@
     <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -1307,795 +1591,1428 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3">
         <v>45462</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3">
         <v>45462</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3">
         <v>45462</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="4">
         <v>45462</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" t="s">
-        <v>49</v>
-      </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="3">
         <v>45462</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="3">
         <v>45462</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="3">
         <v>45462</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45468</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80B669-ED98-4A31-80A3-D2C204E2362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEEF3C9-A5DE-444B-9A65-D28A114B0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
   <si>
     <t>機能</t>
   </si>
@@ -884,6 +884,13 @@
     <rPh sb="99" eb="101">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ver.2</t>
+  </si>
+  <si>
+    <t>TC030</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1263,16 +1270,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
@@ -2252,6 +2259,16 @@
         <v>34</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEEF3C9-A5DE-444B-9A65-D28A114B0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA88F37-13F7-4AE7-B2E9-3F818FEEE794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="146">
   <si>
     <t>機能</t>
   </si>
@@ -891,6 +891,115 @@
   </si>
   <si>
     <t>TC030</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページからアカウント一覧へ画面遷移</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページからアカウント一覧へ画面遷移
+ボタン形式による画面遷移</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.D.Iブログのナビゲーションバー「アカウント一覧」ボタンをクリックする</t>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページから「アカウント一覧」ボタン押下後、
+アカウント一覧画面へ画面遷移する</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページ→アカウント一覧画面</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面→TOPページ</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧からTOPページへ画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧からTOPページへ画面遷移
+前に戻る</t>
+    <rPh sb="21" eb="22">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧にアクセスする
+2.画面左上の左矢印、前に戻るをクリックする
+3.TOPページ画面が表示されることを確認</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ヒダリヤジルシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページ画面が表示されることを確認</t>
+  </si>
+  <si>
+    <t>TC031</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1270,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2264,9 +2373,44 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>134</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA88F37-13F7-4AE7-B2E9-3F818FEEE794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDD365-AB29-45E7-874B-776A44209DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>機能</t>
   </si>
@@ -1379,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2392,8 +2392,20 @@
       <c r="F32" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45475</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2412,6 +2424,21 @@
       <c r="F33" t="s">
         <v>144</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45475</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDD365-AB29-45E7-874B-776A44209DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7771D3-B79D-430B-9073-5F5F522C7D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テストVer.2" sheetId="2" r:id="rId2"/>
+    <sheet name="結合テストVer.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>機能</t>
   </si>
@@ -884,13 +886,6 @@
     <rPh sb="99" eb="101">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ver.2</t>
-  </si>
-  <si>
-    <t>TC030</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -997,9 +992,14 @@
   </si>
   <si>
     <t>TOPページ画面が表示されることを確認</t>
-  </si>
-  <si>
-    <t>TC031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC102</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1066,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,6 +1075,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1381,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2368,77 +2369,196 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731946FA-E98E-4C84-8F32-8EF56C7E60CC}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45475</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="E3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3">
         <v>45475</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="3">
-        <v>45475</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I34" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7771D3-B79D-430B-9073-5F5F522C7D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BFEF8-3329-4251-BEAF-CED04F93611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,7 +1075,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2439,10 +2438,10 @@
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2471,13 +2470,13 @@
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="2" t="s">

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574BFEF8-3329-4251-BEAF-CED04F93611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E869C-AD72-4442-ACA4-DBDE9A54CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="151">
   <si>
     <t>機能</t>
   </si>
@@ -1000,6 +1000,78 @@
   </si>
   <si>
     <t>TC102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧→削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から削除画面へ画面遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から削除画面へ画面遷移
+ボタン形式による画面遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧にアクセスする
+2.画面項目の「削除」ボタンをクリックする</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から「削除」ボタン押下後、
+削除画面へ画面遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面→削除確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1066,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,6 +1147,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1382,7 +1457,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2506,19 +2581,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -2559,6 +2635,694 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E869C-AD72-4442-ACA4-DBDE9A54CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8A13E-21CA-4931-84B5-B1E77781FB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="208">
   <si>
     <t>機能</t>
   </si>
@@ -1065,13 +1065,673 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>削除画面へ入力データセット
+名前（姓）が正しく表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+名前（名）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+カナ（名）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+カナ（姓）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+メールアドレスが正しく表示されている</t>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+パスワードが正しく表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+性別が正しく表示されている</t>
+    <rPh sb="14" eb="16">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+郵便番号が正しく表示されている</t>
+    <rPh sb="14" eb="18">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+住所（都道府県）が正しく表示されている</t>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+ 住所（市区町村）が正しく表示されている</t>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+ 住所（番地）が正しく表示されている</t>
+    <rPh sb="18" eb="20">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面へ入力データセット
+ アカウント権限が正しく表示されている</t>
+    <rPh sb="20" eb="22">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+名前（姓）が正しく表示されている</t>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+名前（名）が正しく表示されている</t>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+カナ（姓）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+カナ（名）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+メールアドレスが正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+性別が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+郵便番号が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+住所（都道府県）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+ 住所（市区町村）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+ 住所（番地）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+ アカウント権限が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、削除画面へ遷移
+パスワードが正しく表示されている（ハッシュ化されているので表示できません）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>削除画面→削除確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面から削除確認画面へ画面遷移</t>
+    <rPh sb="6" eb="12">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面にアクセスする
+2.「確認する」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時にアカウント削除確認画面に遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面→更新完了画面
+phpMyAdmin（アカウント）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、family_nameに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>last_nameが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、last_nameに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>family_name_kanaが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、family_name_kanaに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>last_name_kanaが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、last_name_kanaに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mailが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、mailに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>passwordが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、passwordに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>genderが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、genderに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postal_codeが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、postal_codeに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prefectureが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、prefectureに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>address_1が正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、address_1に入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>address_2が正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、address_2に入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authorityが正しく登録されるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザーが更新画面に全ての必須情報を入力し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、authorityに入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面→削除画面</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>サクジョ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面から削除画面へ画面遷移</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタン押下</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面にアクセスする
+2.「前に戻る」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時にアカウント削除画面に遷移</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1147,7 +1807,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2581,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2592,7 +3252,7 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
@@ -2847,479 +3507,457 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
+        <v>148</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
+        <v>175</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
-        <v>62</v>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
       </c>
     </row>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8A13E-21CA-4931-84B5-B1E77781FB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09187412-723D-403A-82E9-3618FF727F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="333">
   <si>
     <t>機能</t>
   </si>
@@ -1319,10 +1319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタン押下時にアカウント削除確認画面に遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新確認画面→更新完了画面
 phpMyAdmin（アカウント）</t>
     <rPh sb="0" eb="2">
@@ -1675,22 +1671,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除確認画面→削除画面</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除確認画面から削除画面へ画面遷移</t>
     <rPh sb="0" eb="6">
       <t>サクジョカクニンガメン</t>
@@ -1731,8 +1711,1242 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタン押下時にアカウント削除画面に遷移</t>
-    <phoneticPr fontId="2"/>
+    <t>1. ユーザーが更新画面に全ての必須情報が入力されていることを確認し、画面遷移
+2.更新確認画面の更新するボタンをクリックする
+3. phpMyAdminでデータベースに接続し、各項目入力情報が正しく登録されていることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XAMPP MySQLでのデータベース登録
+</t>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各項目変更しなかった場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回登録した内容が登録されている
+尚、passwordはハッシュ化の値が変更される</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタン押下後、画面に「エラーが発生したためアカウント削除できません。」と
+エラーメッセージを赤字で表示されることを確認する
+</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面→削除完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面から削除完了画面へ画面遷移
+エラーメッセージ表示</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面→削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面から削除完了画面へ画面遷移</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面にアクセスする
+2.「削除する」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常な削除処理後の削除完了画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時に削除完了画面に遷移
+削除完了しました　←画面中央にテキスト表示</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時に削除確認画面に遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時に削除画面に遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面→削除完了画面
+phpMyAdmin（アカウント）</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面から削除完了画面へ画面遷移
+該当アカウントの削除フラグを1に更新する</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phpMyAdmin（アカウント）
+該当アカウントの削除フラグを1に更新する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面にアクセスする
+2.「削除する」ボタンをクリック、削除完了画面表示
+3.phpMyAdmin（アカウント）へアクセス確認
+4.アカウント一覧にアクセス該当情報確認</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>ガイトウジョウホウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phpMyAdmin（アカウント）
+該当アカウントの削除フラグを1に更新する
+アカウント一覧でも削除フラグが無効になっていることを確認する</t>
+    <rPh sb="44" eb="46">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面からTOPページに画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面→TOPページ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下、TOPページに遷移</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除完了画面にアクセスする
+2.「TOPページへ戻る」ボタンをクリックする</t>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧→更新画面</t>
+  </si>
+  <si>
+    <t>アカウント一覧から更新画面へ画面遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧にアクセスする
+2.画面項目の「更新」ボタンをクリックする</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧→更新画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から更新画面へ画面遷移
+ボタン形式による画面遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+名前（姓）が正しく表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+名前（名）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+カナ（姓）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+カナ（名）が正しく表示されている</t>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+メールアドレスが正しく表示されている</t>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+パスワードが正しく表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+性別が正しく表示されている</t>
+    <rPh sb="14" eb="16">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+郵便番号が正しく表示されている</t>
+    <rPh sb="14" eb="18">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+住所（都道府県）が正しく表示されている</t>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+ 住所（市区町村）が正しく表示されている</t>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+ 住所（番地）が正しく表示されている</t>
+    <rPh sb="18" eb="20">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面へ入力データセット
+ アカウント権限が正しく表示されている</t>
+    <rPh sb="20" eb="22">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から「更新」ボタン押下後、
+更新画面へ画面遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+名前（姓）が正しく表示されている</t>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+名前（名）が正しく表示されている</t>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+カナ（姓）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+カナ（名）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+メールアドレスが正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+パスワードが正しく表示されている（ハッシュ化されているので表示できません）</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+性別が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+郵便番号が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+住所（都道府県）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+ 住所（市区町村）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+ 住所（番地）が正しく表示されている</t>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移
+ アカウント権限が正しく表示されている</t>
+  </si>
+  <si>
+    <t>更新画面から更新確認画面へ画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面から更新確認画面へ画面遷移
+ボタン形式「確認する」</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面→更新確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新画面にアクセスする
+2.画面項目の「確認する」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新確認画面へ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面→更新画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面→更新完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面から更新画面へ画面遷移
+ボタン形式「前に戻る」</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面から更新画面へ画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新確認画面にアクセスする
+2.画面項目の「前に戻る」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面から更新完了画面へ画面遷移
+ボタン形式「更新する」</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面から更新完了画面へ画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新確認画面にアクセスする
+2.画面項目の「更新する」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新画面へ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、更新完了画面へ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面から更新完了画面へ画面遷移
+エラーメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新するボタン押下、エラーメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新確認画面にアクセスする
+2.データベース接続を遮断する
+3.「更新する」ボタンをクリックする</t>
+    <rPh sb="2" eb="6">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除するボタン押下、エラーメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面にアクセスする
+2.データベース接続を遮断する
+3.「削除する」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタン押下後、画面に「エラーが発生したためアカウント更新できません。」と
+エラーメッセージを赤字で表示されることを確認する
+</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新完了画面→TOPページ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新完了画面からTOPページに画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新完了画面にアクセスする
+2.「TOPページへ戻る」ボタンをクリックする</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタン押下後、TOPページに遷移</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC201</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC203</t>
+  </si>
+  <si>
+    <t>TC204</t>
+  </si>
+  <si>
+    <t>TC205</t>
+  </si>
+  <si>
+    <t>TC206</t>
+  </si>
+  <si>
+    <t>TC207</t>
+  </si>
+  <si>
+    <t>TC208</t>
+  </si>
+  <si>
+    <t>TC209</t>
+  </si>
+  <si>
+    <t>TC210</t>
+  </si>
+  <si>
+    <t>TC211</t>
+  </si>
+  <si>
+    <t>TC212</t>
+  </si>
+  <si>
+    <t>TC213</t>
+  </si>
+  <si>
+    <t>TC214</t>
+  </si>
+  <si>
+    <t>TC215</t>
+  </si>
+  <si>
+    <t>TC216</t>
+  </si>
+  <si>
+    <t>TC217</t>
+  </si>
+  <si>
+    <t>TC218</t>
+  </si>
+  <si>
+    <t>TC219</t>
+  </si>
+  <si>
+    <t>TC220</t>
+  </si>
+  <si>
+    <t>TC221</t>
+  </si>
+  <si>
+    <t>TC222</t>
+  </si>
+  <si>
+    <t>TC223</t>
+  </si>
+  <si>
+    <t>TC224</t>
+  </si>
+  <si>
+    <t>TC225</t>
+  </si>
+  <si>
+    <t>TC226</t>
+  </si>
+  <si>
+    <t>TC227</t>
+  </si>
+  <si>
+    <t>TC228</t>
+  </si>
+  <si>
+    <t>TC229</t>
+  </si>
+  <si>
+    <t>TC230</t>
+  </si>
+  <si>
+    <t>TC231</t>
+  </si>
+  <si>
+    <t>TC232</t>
+  </si>
+  <si>
+    <t>TC233</t>
+  </si>
+  <si>
+    <t>TC234</t>
+  </si>
+  <si>
+    <t>TC235</t>
+  </si>
+  <si>
+    <t>TC236</t>
+  </si>
+  <si>
+    <t>TC237</t>
+  </si>
+  <si>
+    <t>TC238</t>
+  </si>
+  <si>
+    <t>TC239</t>
+  </si>
+  <si>
+    <t>TC240</t>
+  </si>
+  <si>
+    <t>TC241</t>
+  </si>
+  <si>
+    <t>TC242</t>
+  </si>
+  <si>
+    <t>TC243</t>
+  </si>
+  <si>
+    <t>TC244</t>
+  </si>
+  <si>
+    <t>TC245</t>
+  </si>
+  <si>
+    <t>TC246</t>
+  </si>
+  <si>
+    <t>TC247</t>
+  </si>
+  <si>
+    <t>TC248</t>
+  </si>
+  <si>
+    <t>TC249</t>
+  </si>
+  <si>
+    <t>TC250</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +3012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1807,9 +3021,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3241,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3295,671 +4506,1011 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>145</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>304</v>
+      </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>308</v>
+      </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>311</v>
+      </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
-        <v>185</v>
+      <c r="D38" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>320</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>321</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>322</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>323</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>324</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>325</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>327</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
       </c>
       <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="F49" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09187412-723D-403A-82E9-3618FF727F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B7FF2-4E94-43BF-9CD6-07DCF5B25525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
@@ -4454,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B7FF2-4E94-43BF-9CD6-07DCF5B25525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EEDCA-097B-4BC8-9A42-E00BAC9816AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="334">
   <si>
     <t>機能</t>
   </si>
@@ -2947,6 +2947,16 @@
   </si>
   <si>
     <t>TC250</t>
+  </si>
+  <si>
+    <t>指定された文字列ではなかった</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3012,7 +3022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3021,6 +3031,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4327,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731946FA-E98E-4C84-8F32-8EF56C7E60CC}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4454,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4468,7 +4479,9 @@
     <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -4525,6 +4538,18 @@
       <c r="F2" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4545,6 +4570,18 @@
       <c r="F3" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4565,6 +4602,18 @@
       <c r="F4" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4585,6 +4634,18 @@
       <c r="F5" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4605,6 +4666,18 @@
       <c r="F6" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4625,6 +4698,18 @@
       <c r="F7" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4645,6 +4730,18 @@
       <c r="F8" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4665,6 +4762,18 @@
       <c r="F9" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4685,6 +4794,18 @@
       <c r="F10" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4705,6 +4826,18 @@
       <c r="F11" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4725,6 +4858,18 @@
       <c r="F12" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4745,6 +4890,18 @@
       <c r="F13" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4765,6 +4922,18 @@
       <c r="F14" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4785,6 +4954,18 @@
       <c r="F15" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4805,8 +4986,20 @@
       <c r="F16" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -4825,8 +5018,20 @@
       <c r="F17" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -4845,8 +5050,20 @@
       <c r="F18" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>300</v>
       </c>
@@ -4865,8 +5082,23 @@
       <c r="F19" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>301</v>
       </c>
@@ -4885,8 +5117,20 @@
       <c r="F20" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>302</v>
       </c>
@@ -4905,8 +5149,20 @@
       <c r="F21" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -4925,8 +5181,20 @@
       <c r="F22" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>304</v>
       </c>
@@ -4945,8 +5213,20 @@
       <c r="F23" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>305</v>
       </c>
@@ -4965,8 +5245,20 @@
       <c r="F24" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>306</v>
       </c>
@@ -4985,8 +5277,20 @@
       <c r="F25" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -5005,8 +5309,20 @@
       <c r="F26" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -5025,8 +5341,20 @@
       <c r="F27" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -5045,8 +5373,20 @@
       <c r="F28" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -5065,8 +5405,20 @@
       <c r="F29" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>311</v>
       </c>
@@ -5085,8 +5437,20 @@
       <c r="F30" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -5105,8 +5469,20 @@
       <c r="F31" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -5125,8 +5501,20 @@
       <c r="F32" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>314</v>
       </c>
@@ -5145,8 +5533,20 @@
       <c r="F33" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>315</v>
       </c>
@@ -5165,8 +5565,20 @@
       <c r="F34" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -5185,8 +5597,20 @@
       <c r="F35" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>317</v>
       </c>
@@ -5205,8 +5629,20 @@
       <c r="F36" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>318</v>
       </c>
@@ -5225,8 +5661,20 @@
       <c r="F37" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>319</v>
       </c>
@@ -5245,8 +5693,20 @@
       <c r="F38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>320</v>
       </c>
@@ -5265,8 +5725,20 @@
       <c r="F39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>321</v>
       </c>
@@ -5285,8 +5757,20 @@
       <c r="F40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -5305,8 +5789,20 @@
       <c r="F41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -5325,8 +5821,20 @@
       <c r="F42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>324</v>
       </c>
@@ -5345,8 +5853,20 @@
       <c r="F43" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>325</v>
       </c>
@@ -5365,8 +5885,20 @@
       <c r="F44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>326</v>
       </c>
@@ -5385,8 +5917,20 @@
       <c r="F45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>327</v>
       </c>
@@ -5405,8 +5949,20 @@
       <c r="F46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -5425,8 +5981,20 @@
       <c r="F47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -5445,8 +6013,20 @@
       <c r="F48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -5465,8 +6045,20 @@
       <c r="F49" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>331</v>
       </c>
@@ -5485,8 +6077,20 @@
       <c r="F50" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>332</v>
       </c>
@@ -5505,8 +6109,20 @@
       <c r="F51" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45495</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EEDCA-097B-4BC8-9A42-E00BAC9816AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E7DFA-E26F-49B0-BD04-4BD167E158E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="18024" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
     <sheet name="結合テストVer.2" sheetId="2" r:id="rId2"/>
     <sheet name="結合テストVer.3" sheetId="3" r:id="rId3"/>
+    <sheet name="結合テストVer.4" sheetId="4" r:id="rId4"/>
+    <sheet name="結合テストVer.5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="365">
   <si>
     <t>機能</t>
   </si>
@@ -2955,6 +2957,489 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面→TOPページ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン一般</t>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン管理者</t>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページへ遷移することを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページへ遷移することを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページへ遷移することを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の非表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページへ遷移後、正しく画面表示されていることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「アカウント登録」
+「アカウント一覧」リンクが非表示になっていることを確認</t>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページで操作不可</t>
+  </si>
+  <si>
+    <t>ログイン画面→TOPページ
+→登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面→TOPページ
+→アカウント一覧画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面→TOPページ
+→削除画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面→TOPページ
+→更新画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページ遷移後、登録画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページ遷移後、アカウント一覧画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページ遷移後、削除画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（一般）アカウント情報を入力する
+3.TOPページ遷移後、更新画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録画面アクセス時、操作不可（エラー表示）</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ソウサフカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面アクセス時、操作不可（エラー表示）</t>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ソウサフカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面アクセス時、操作不可（エラー表示）</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ソウサフカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面アクセス時、操作不可（エラー表示）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ソウサフカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページへ遷移後、正しく画面表示されていることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「アカウント登録」
+「アカウント一覧」リンクが表示されていることを確認</t>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページで操作可能</t>
+  </si>
+  <si>
+    <t>登録画面が正しく表示されることを確認</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面が正しく表示されることを確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面が正しく表示されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面が正しく表示されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3022,7 +3507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3031,7 +3516,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4465,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5091,7 +5575,7 @@
       <c r="I19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" t="s">
         <v>333</v>
       </c>
       <c r="K19" t="s">
@@ -6132,4 +6616,317 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B1B468-4BBE-4BA3-9DCE-E6578A7EB67C}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E8917-F456-41BB-B8D7-98254F6C688D}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E7DFA-E26F-49B0-BD04-4BD167E158E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C5E58-C3B8-406E-A187-0EB7D7E08AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="18024" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14352" windowHeight="12336" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="387">
   <si>
     <t>機能</t>
   </si>
@@ -3443,12 +3443,152 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>TC301</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC302</t>
+  </si>
+  <si>
+    <t>TC303</t>
+  </si>
+  <si>
+    <t>TC304</t>
+  </si>
+  <si>
+    <t>TC305</t>
+  </si>
+  <si>
+    <t>TC306</t>
+  </si>
+  <si>
+    <t>TC307</t>
+  </si>
+  <si>
+    <t>TC308</t>
+  </si>
+  <si>
+    <t>TC309</t>
+  </si>
+  <si>
+    <t>TC310</t>
+  </si>
+  <si>
+    <t>TC311</t>
+  </si>
+  <si>
+    <t>TC312</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索データ出力</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件未入力</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、名前（姓）</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、名前（名）</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、カナ（姓）</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、カナ（名）</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、メールアドレス</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、性別</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単一項目入力、アカウント権限</t>
+    <rPh sb="0" eb="4">
+      <t>タンイツコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3466,6 +3606,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3507,7 +3655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3516,6 +3664,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4949,7 +5098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -6622,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B1B468-4BBE-4BA3-9DCE-E6578A7EB67C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6671,6 +6820,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
       <c r="B2" t="s">
         <v>334</v>
       </c>
@@ -6688,6 +6840,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
       <c r="B3" t="s">
         <v>334</v>
       </c>
@@ -6705,6 +6860,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>345</v>
       </c>
@@ -6722,6 +6880,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>346</v>
       </c>
@@ -6739,6 +6900,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>347</v>
       </c>
@@ -6756,6 +6920,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>348</v>
       </c>
@@ -6773,6 +6940,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
       <c r="B8" t="s">
         <v>334</v>
       </c>
@@ -6790,6 +6960,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
       <c r="B9" t="s">
         <v>334</v>
       </c>
@@ -6807,6 +6980,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>373</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>345</v>
       </c>
@@ -6824,6 +7000,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>346</v>
       </c>
@@ -6841,6 +7020,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>347</v>
       </c>
@@ -6858,6 +7040,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>348</v>
       </c>
@@ -6882,13 +7067,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E8917-F456-41BB-B8D7-98254F6C688D}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -6923,6 +7119,94 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C5E58-C3B8-406E-A187-0EB7D7E08AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE268F-9583-4E9E-8D44-9334055E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14352" windowHeight="12336" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="409">
   <si>
     <t>機能</t>
   </si>
@@ -3582,6 +3582,377 @@
       <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数項目入力</t>
+    <rPh sb="0" eb="4">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索データ出力、絞り込み</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目をすべて未入力で検索ボタンをクリックする
+3.すべてのアカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目の名前（姓）のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目の名前（名）のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目のカナ（姓）のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目のカナ（名）のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目のメールアドレスのみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目の性別のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目のアカウント権限のみ入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面にアクセスする
+2.検索項目を複数入力し、検索ボタンをクリックする
+3.該当アカウントが表示されることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケンサクコウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索ボタン押下後、すべてのアカウントが表示されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索ボタン押下後、該当アカウントが表示されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC401</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC402</t>
+  </si>
+  <si>
+    <t>TC403</t>
+  </si>
+  <si>
+    <t>TC404</t>
+  </si>
+  <si>
+    <t>TC405</t>
+  </si>
+  <si>
+    <t>TC406</t>
+  </si>
+  <si>
+    <t>TC407</t>
+  </si>
+  <si>
+    <t>TC408</t>
+  </si>
+  <si>
+    <t>TC409</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +4026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3665,6 +4036,7 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7067,20 +7439,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E8917-F456-41BB-B8D7-98254F6C688D}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -7121,7 +7493,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>400</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>377</v>
       </c>
@@ -7131,8 +7506,17 @@
       <c r="D2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>401</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>377</v>
       </c>
@@ -7142,8 +7526,17 @@
       <c r="D3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>402</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>377</v>
       </c>
@@ -7153,8 +7546,17 @@
       <c r="D4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>403</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>377</v>
       </c>
@@ -7164,8 +7566,17 @@
       <c r="D5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>404</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>377</v>
       </c>
@@ -7175,8 +7586,17 @@
       <c r="D6" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>377</v>
       </c>
@@ -7186,8 +7606,17 @@
       <c r="D7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>377</v>
       </c>
@@ -7197,8 +7626,17 @@
       <c r="D8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>377</v>
       </c>
@@ -7207,6 +7645,32 @@
       </c>
       <c r="D9" t="s">
         <v>386</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE268F-9583-4E9E-8D44-9334055E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567070E-B0B5-48AF-A4F1-DEED1187F251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="413">
   <si>
     <t>機能</t>
   </si>
@@ -3953,6 +3953,135 @@
   </si>
   <si>
     <t>TC409</t>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページ遷移後、更新画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページ遷移後、削除画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページ遷移後、アカウント一覧画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセスする
+2.登録された（管理者）アカウント情報を入力する
+3.TOPページ遷移後、登録画面へアクセス</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4026,7 +4155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4036,7 +4165,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5470,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85826B20-A4F8-47FE-9233-F1A153E9101F}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7143,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B1B468-4BBE-4BA3-9DCE-E6578A7EB67C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7154,6 +7282,7 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -7210,6 +7339,18 @@
       <c r="F2" t="s">
         <v>340</v>
       </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -7230,6 +7371,18 @@
       <c r="F3" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7250,6 +7403,18 @@
       <c r="F4" t="s">
         <v>353</v>
       </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7270,6 +7435,18 @@
       <c r="F5" t="s">
         <v>354</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7290,6 +7467,18 @@
       <c r="F6" t="s">
         <v>355</v>
       </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7310,6 +7499,18 @@
       <c r="F7" t="s">
         <v>356</v>
       </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7330,6 +7531,18 @@
       <c r="F8" t="s">
         <v>340</v>
       </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7350,6 +7563,18 @@
       <c r="F9" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7365,10 +7590,22 @@
         <v>337</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="F10" t="s">
         <v>361</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
@@ -7385,10 +7622,22 @@
         <v>337</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
         <v>362</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
@@ -7405,10 +7654,22 @@
         <v>337</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
         <v>363</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
@@ -7425,10 +7686,22 @@
         <v>337</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F13" t="s">
         <v>364</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7441,8 +7714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E8917-F456-41BB-B8D7-98254F6C688D}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7455,7 +7728,8 @@
     <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -7512,6 +7786,18 @@
       <c r="F2" t="s">
         <v>398</v>
       </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -7532,6 +7818,18 @@
       <c r="F3" t="s">
         <v>399</v>
       </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7552,6 +7850,18 @@
       <c r="F4" t="s">
         <v>399</v>
       </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7572,6 +7882,18 @@
       <c r="F5" t="s">
         <v>399</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7592,6 +7914,18 @@
       <c r="F6" t="s">
         <v>399</v>
       </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7612,6 +7946,18 @@
       <c r="F7" t="s">
         <v>399</v>
       </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7632,6 +7978,18 @@
       <c r="F8" t="s">
         <v>399</v>
       </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7652,6 +8010,18 @@
       <c r="F9" t="s">
         <v>399</v>
       </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7660,7 +8030,7 @@
       <c r="B10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>388</v>
       </c>
       <c r="D10" t="s">
@@ -7671,6 +8041,18 @@
       </c>
       <c r="F10" t="s">
         <v>399</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
